--- a/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005542</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -818,25 +938,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.68</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.72</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8513</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,1086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8850</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6231</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2417,4 +2418,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2426,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.36</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2473,14 +2516,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.57</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2489,14 +2554,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.77</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2505,13 +2592,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6345</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2939,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,17 +2951,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2970,14 +2991,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.73</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2986,14 +3029,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.36</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3002,14 +3067,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.57</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2887</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3018,14 +3105,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.77</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3034,13 +3143,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5663</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4700</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3452,7 +3453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3463,17 +3464,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3483,14 +3504,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3499,14 +3542,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.73</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3515,14 +3580,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.36</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3531,14 +3618,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.57</v>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3547,14 +3656,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.77</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3563,13 +3694,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>6.84</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>6.73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>10.36</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>3.57</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.77</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -600,6 +617,478 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4059</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1217,518 +1706,6 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7478</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3853</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>516150</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实中证稀土产业ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2887</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9377</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>516780</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5663</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4700</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2548</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159715</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达中证稀土产业ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.06</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1737</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159713</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1666</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>013802</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159944</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发中证全指原材料ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.36</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>013803</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1804,22 +1781,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.87</t>
+          <t>15.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2856</t>
+          <t>1.7478</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1842,22 +1819,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.67</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>99.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5231</t>
+          <t>1.3853</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1880,26 +1857,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.87</t>
+          <t>25.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2269</t>
+          <t>1.2887</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1908,36 +1885,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6446</t>
+          <t>0.9377</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1946,36 +1923,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>98.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6345</t>
+          <t>0.5663</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1984,36 +1961,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159715</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达中证稀土产业ETF</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.56</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2198</t>
+          <t>0.4700</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2022,36 +1999,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159713</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.75</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1344</t>
+          <t>0.2548</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2060,36 +2037,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002145</t>
+          <t>159715</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安景鑫灵活配置混合</t>
+          <t>易方达中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>99.06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0336</t>
+          <t>0.1737</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2098,36 +2075,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013802</t>
+          <t>159713</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数A</t>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>99.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.1666</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2136,36 +2113,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320016</t>
+          <t>013802</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安多策略混合</t>
+          <t>财通资管中证钢铁指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2184,22 +2161,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>98.36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2222,26 +2199,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2250,6 +2227,518 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6345</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3331,7 +3820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3653,7 +4142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4051,7 +4540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600010-包钢股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>6.84</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>6.73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>10.36</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>3.57</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.77</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -616,7 +633,689 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0181</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3935</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3517</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1088,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1706,518 +2405,6 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7478</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3853</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>516150</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实中证稀土产业ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2887</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9377</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>516780</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5663</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4700</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2548</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159715</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达中证稀土产业ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.06</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1737</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159713</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1666</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>013802</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159944</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发中证全指原材料ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.36</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>013803</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2293,22 +2480,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.87</t>
+          <t>15.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2856</t>
+          <t>1.7478</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2331,22 +2518,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.67</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>99.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5231</t>
+          <t>1.3853</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2369,26 +2556,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.87</t>
+          <t>25.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2269</t>
+          <t>1.2887</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2397,36 +2584,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6446</t>
+          <t>0.9377</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2435,36 +2622,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>98.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6345</t>
+          <t>0.5663</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2473,36 +2660,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159715</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达中证稀土产业ETF</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.56</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2198</t>
+          <t>0.4700</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2511,36 +2698,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159713</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.75</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1344</t>
+          <t>0.2548</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2549,36 +2736,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002145</t>
+          <t>159715</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安景鑫灵活配置混合</t>
+          <t>易方达中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>99.06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0336</t>
+          <t>0.1737</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2587,36 +2774,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013802</t>
+          <t>159713</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数A</t>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>99.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.1666</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2625,36 +2812,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320016</t>
+          <t>013802</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安多策略混合</t>
+          <t>财通资管中证钢铁指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2673,22 +2860,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>98.36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2711,26 +2898,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2739,6 +2926,518 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6345</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3820,7 +4519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4142,7 +4841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4538,174 +5237,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2177</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1031</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0657</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>